--- a/case 1/encryptDecrypt.xlsx
+++ b/case 1/encryptDecrypt.xlsx
@@ -49,12 +49,6 @@
     <t>Key is not correct</t>
   </si>
   <si>
-    <t>e -f sample.txt -k aC2X0</t>
-  </si>
-  <si>
-    <t>d -k aC2X0 -f encrypted.txt</t>
-  </si>
-  <si>
     <t>e -f sample1.txt -k S#@p</t>
   </si>
   <si>
@@ -92,6 +86,12 @@
   </si>
   <si>
     <t>d -k @$ -f encrypted.txt</t>
+  </si>
+  <si>
+    <t>e -f sample.txt -k aC2@X0</t>
+  </si>
+  <si>
+    <t>d -k aC2@X0 -f encrypted.txt</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -536,13 +536,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -550,13 +550,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -564,13 +564,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -581,16 +581,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -598,13 +598,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -612,13 +612,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
         <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/case 1/encryptDecrypt.xlsx
+++ b/case 1/encryptDecrypt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Test Case</t>
   </si>
@@ -70,15 +70,9 @@
     <t>f -f sample.txt -k abc</t>
   </si>
   <si>
-    <t>enter correct format</t>
-  </si>
-  <si>
     <t>d -h sample.txt -k abc</t>
   </si>
   <si>
-    <t>program terminates</t>
-  </si>
-  <si>
     <t>FAIL</t>
   </si>
   <si>
@@ -92,6 +86,12 @@
   </si>
   <si>
     <t>d -k aC2@X0 -f encrypted.txt</t>
+  </si>
+  <si>
+    <t>use -h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e -f sample.txt -k </t>
   </si>
 </sst>
 </file>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -542,7 +542,7 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -590,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -601,10 +601,10 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -612,13 +612,30 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/case 1/encryptDecrypt.xlsx
+++ b/case 1/encryptDecrypt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Test Case</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t xml:space="preserve">e -f sample.txt -k </t>
+  </si>
+  <si>
+    <t>e -f encrypted.txt -k abc</t>
+  </si>
+  <si>
+    <t>that is encrypted file</t>
   </si>
 </sst>
 </file>
@@ -444,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,6 +644,23 @@
         <v>19</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -645,6 +668,7 @@
     <hyperlink ref="D4" r:id="rId3"/>
     <hyperlink ref="D8" r:id="rId4"/>
     <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D12" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/case 1/encryptDecrypt.xlsx
+++ b/case 1/encryptDecrypt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>Test Case</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Input</t>
   </si>
   <si>
-    <t>Output</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
@@ -98,6 +95,15 @@
   </si>
   <si>
     <t>that is encrypted file</t>
+  </si>
+  <si>
+    <t>Expected Output</t>
+  </si>
+  <si>
+    <t>Actual Output</t>
+  </si>
+  <si>
+    <t>compiles</t>
   </si>
 </sst>
 </file>
@@ -450,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,10 +469,10 @@
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,191 +480,233 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
+      <c r="E7" t="s">
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/case 1/encryptDecrypt.xlsx
+++ b/case 1/encryptDecrypt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>Test Case</t>
   </si>
@@ -31,9 +31,6 @@
     <t>This is sample file</t>
   </si>
   <si>
-    <t>sihT@si@elpmas@elif</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>File doesn’t exists</t>
   </si>
   <si>
-    <t>d -k aC2X0 -f sample.txt</t>
-  </si>
-  <si>
     <t>There is no such encryted file</t>
   </si>
   <si>
@@ -73,18 +67,9 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>e -f sample.txt -k @$</t>
-  </si>
-  <si>
-    <t>d -k @$ -f encrypted.txt</t>
-  </si>
-  <si>
     <t>e -f sample.txt -k aC2@X0</t>
   </si>
   <si>
-    <t>d -k aC2@X0 -f encrypted.txt</t>
-  </si>
-  <si>
     <t>use -h</t>
   </si>
   <si>
@@ -94,9 +79,6 @@
     <t>e -f encrypted.txt -k abc</t>
   </si>
   <si>
-    <t>that is encrypted file</t>
-  </si>
-  <si>
     <t>Expected Output</t>
   </si>
   <si>
@@ -104,6 +86,27 @@
   </si>
   <si>
     <t>compiles</t>
+  </si>
+  <si>
+    <t>d -k aC2@X0 zjsd asjh -f encrypted.txt</t>
+  </si>
+  <si>
+    <t>d -k aC2X0 -f sfd sample.txt</t>
+  </si>
+  <si>
+    <t>e -f sample.txt -k @$125</t>
+  </si>
+  <si>
+    <t>d -k kdjf @$125 -f encrypted.txt</t>
+  </si>
+  <si>
+    <t>This is sample*  file</t>
+  </si>
+  <si>
+    <t>sihT#$si#$elpmas*#$elif</t>
+  </si>
+  <si>
+    <t>This is sample* file</t>
   </si>
 </sst>
 </file>
@@ -459,13 +462,13 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
@@ -483,13 +486,13 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -500,22 +503,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -523,19 +526,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -543,19 +546,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
         <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -563,16 +566,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -580,16 +583,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -597,22 +600,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -620,19 +623,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -640,16 +643,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
         <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -657,16 +660,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -674,19 +677,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -694,29 +697,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D8" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D12" r:id="rId6"/>
+    <hyperlink ref="D2" r:id="rId1" display="sihT@si@elpmas@elif"/>
+    <hyperlink ref="D8" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4" display="sihT@si@elpmas@elif"/>
+    <hyperlink ref="D4" r:id="rId5" display="sihT@si@elpmas@elif"/>
+    <hyperlink ref="D12" r:id="rId6" display="sihT@si@elpmas@elif"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
